--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf7-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf7-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Fgf7</t>
+  </si>
+  <si>
+    <t>Nrp1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf7</t>
-  </si>
-  <si>
-    <t>Nrp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>18.32032066666666</v>
+        <v>0.025512</v>
       </c>
       <c r="H2">
-        <v>54.96096199999999</v>
+        <v>0.07653600000000001</v>
       </c>
       <c r="I2">
-        <v>0.9393883922888365</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="J2">
-        <v>0.9570930138987986</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N2">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O2">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P2">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q2">
-        <v>1999.567197703127</v>
+        <v>1.61917652452</v>
       </c>
       <c r="R2">
-        <v>17996.10477932814</v>
+        <v>14.57258872068</v>
       </c>
       <c r="S2">
-        <v>0.3321247199230946</v>
+        <v>0.0003274201492070551</v>
       </c>
       <c r="T2">
-        <v>0.3499093463638503</v>
+        <v>0.0003333534173841428</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>18.32032066666666</v>
+        <v>0.025512</v>
       </c>
       <c r="H3">
-        <v>54.96096199999999</v>
+        <v>0.07653600000000001</v>
       </c>
       <c r="I3">
-        <v>0.9393883922888365</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="J3">
-        <v>0.9570930138987986</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>143.942475</v>
       </c>
       <c r="O3">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P3">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q3">
-        <v>879.0240998512165</v>
+        <v>1.2240868074</v>
       </c>
       <c r="R3">
-        <v>7911.216898660949</v>
+        <v>11.0167812666</v>
       </c>
       <c r="S3">
-        <v>0.1460044120068029</v>
+        <v>0.0002475274802048584</v>
       </c>
       <c r="T3">
-        <v>0.1538226615091117</v>
+        <v>0.0002520129919389742</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>18.32032066666666</v>
+        <v>0.025512</v>
       </c>
       <c r="H4">
-        <v>54.96096199999999</v>
+        <v>0.07653600000000001</v>
       </c>
       <c r="I4">
-        <v>0.9393883922888365</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="J4">
-        <v>0.9570930138987986</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N4">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O4">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P4">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q4">
-        <v>1140.759101486013</v>
+        <v>1.646495811608</v>
       </c>
       <c r="R4">
-        <v>10266.83191337412</v>
+        <v>14.818462304472</v>
       </c>
       <c r="S4">
-        <v>0.1894781518300412</v>
+        <v>0.0003329444913149887</v>
       </c>
       <c r="T4">
-        <v>0.1996243347150802</v>
+        <v>0.0003389778675743301</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>18.32032066666666</v>
+        <v>0.025512</v>
       </c>
       <c r="H5">
-        <v>54.96096199999999</v>
+        <v>0.07653600000000001</v>
       </c>
       <c r="I5">
-        <v>0.9393883922888365</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="J5">
-        <v>0.9570930138987986</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N5">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O5">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P5">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q5">
-        <v>558.8429333737553</v>
+        <v>0.3672029793720001</v>
       </c>
       <c r="R5">
-        <v>3353.057600242532</v>
+        <v>2.203217876232</v>
       </c>
       <c r="S5">
-        <v>0.09282286333810708</v>
+        <v>7.425358043089041E-05</v>
       </c>
       <c r="T5">
-        <v>0.06519556357378616</v>
+        <v>5.039943296015143E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>18.32032066666666</v>
+        <v>0.025512</v>
       </c>
       <c r="H6">
-        <v>54.96096199999999</v>
+        <v>0.07653600000000001</v>
       </c>
       <c r="I6">
-        <v>0.9393883922888365</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="J6">
-        <v>0.9570930138987986</v>
+        <v>0.001390615539972402</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N6">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O6">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P6">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q6">
-        <v>1077.423676638338</v>
+        <v>2.019988004968</v>
       </c>
       <c r="R6">
-        <v>9696.813089745039</v>
+        <v>18.179892044712</v>
       </c>
       <c r="S6">
-        <v>0.1789582451907908</v>
+        <v>0.0004084698388146096</v>
       </c>
       <c r="T6">
-        <v>0.1885411077369704</v>
+        <v>0.0004158718301148036</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.082285</v>
+        <v>18.32032066666667</v>
       </c>
       <c r="H7">
-        <v>2.16457</v>
+        <v>54.960962</v>
       </c>
       <c r="I7">
-        <v>0.05549498748666318</v>
+        <v>0.9986093844600277</v>
       </c>
       <c r="J7">
-        <v>0.03769393310646423</v>
+        <v>0.9986093844600277</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N7">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O7">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P7">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q7">
-        <v>118.1257481209733</v>
+        <v>1162.740402365368</v>
       </c>
       <c r="R7">
-        <v>708.7544887258399</v>
+        <v>10464.66362128831</v>
       </c>
       <c r="S7">
-        <v>0.01962048640098219</v>
+        <v>0.2351223787316202</v>
       </c>
       <c r="T7">
-        <v>0.01378074994136383</v>
+        <v>0.2393830943009826</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.082285</v>
+        <v>18.32032066666667</v>
       </c>
       <c r="H8">
-        <v>2.16457</v>
+        <v>54.960962</v>
       </c>
       <c r="I8">
-        <v>0.05549498748666318</v>
+        <v>0.9986093844600277</v>
       </c>
       <c r="J8">
-        <v>0.03769393310646423</v>
+        <v>0.9986093844600277</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>143.942475</v>
       </c>
       <c r="O8">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P8">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q8">
-        <v>51.928927185125</v>
+        <v>879.0240998512168</v>
       </c>
       <c r="R8">
-        <v>311.57356311075</v>
+        <v>7911.21689866095</v>
       </c>
       <c r="S8">
-        <v>0.008625306724914093</v>
+        <v>0.1777509725292016</v>
       </c>
       <c r="T8">
-        <v>0.006058116639639202</v>
+        <v>0.1809720454879307</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.082285</v>
+        <v>18.32032066666667</v>
       </c>
       <c r="H9">
-        <v>2.16457</v>
+        <v>54.960962</v>
       </c>
       <c r="I9">
-        <v>0.05549498748666318</v>
+        <v>0.9986093844600277</v>
       </c>
       <c r="J9">
-        <v>0.03769393310646423</v>
+        <v>0.9986093844600277</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N9">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O9">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P9">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q9">
-        <v>67.39109465469998</v>
+        <v>1182.358546761608</v>
       </c>
       <c r="R9">
-        <v>404.3465679281999</v>
+        <v>10641.22692085447</v>
       </c>
       <c r="S9">
-        <v>0.01119354651507243</v>
+        <v>0.2390894420308407</v>
       </c>
       <c r="T9">
-        <v>0.007861959297477749</v>
+        <v>0.2434220458162667</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.082285</v>
+        <v>18.32032066666667</v>
       </c>
       <c r="H10">
-        <v>2.16457</v>
+        <v>54.960962</v>
       </c>
       <c r="I10">
-        <v>0.05549498748666318</v>
+        <v>0.9986093844600277</v>
       </c>
       <c r="J10">
-        <v>0.03769393310646423</v>
+        <v>0.9986093844600277</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N10">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O10">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P10">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q10">
-        <v>33.014014064005</v>
+        <v>263.6906683854824</v>
       </c>
       <c r="R10">
-        <v>132.05605625602</v>
+        <v>1582.144010312894</v>
       </c>
       <c r="S10">
-        <v>0.005483571738494127</v>
+        <v>0.05332194277759631</v>
       </c>
       <c r="T10">
-        <v>0.00256764721558022</v>
+        <v>0.03619213598495388</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.082285</v>
+        <v>18.32032066666667</v>
       </c>
       <c r="H11">
-        <v>2.16457</v>
+        <v>54.960962</v>
       </c>
       <c r="I11">
-        <v>0.05549498748666318</v>
+        <v>0.9986093844600277</v>
       </c>
       <c r="J11">
-        <v>0.03769393310646423</v>
+        <v>0.9986093844600277</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,338 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N11">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O11">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P11">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q11">
-        <v>63.64951275073333</v>
+        <v>1450.56553754445</v>
       </c>
       <c r="R11">
-        <v>381.8970765044</v>
+        <v>13055.08983790005</v>
       </c>
       <c r="S11">
-        <v>0.01057207610720033</v>
+        <v>0.2933246483907688</v>
       </c>
       <c r="T11">
-        <v>0.007425460012403238</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.09978633333333335</v>
-      </c>
-      <c r="H12">
-        <v>0.299359</v>
-      </c>
-      <c r="I12">
-        <v>0.005116620224500326</v>
-      </c>
-      <c r="J12">
-        <v>0.005213052994737074</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>109.1447706666667</v>
-      </c>
-      <c r="N12">
-        <v>327.434312</v>
-      </c>
-      <c r="O12">
-        <v>0.3535542089399963</v>
-      </c>
-      <c r="P12">
-        <v>0.3655959674582361</v>
-      </c>
-      <c r="Q12">
-        <v>10.89115646733422</v>
-      </c>
-      <c r="R12">
-        <v>98.020408206008</v>
-      </c>
-      <c r="S12">
-        <v>0.001809002615919599</v>
-      </c>
-      <c r="T12">
-        <v>0.001905871153021956</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.09978633333333335</v>
-      </c>
-      <c r="H13">
-        <v>0.299359</v>
-      </c>
-      <c r="I13">
-        <v>0.005116620224500326</v>
-      </c>
-      <c r="J13">
-        <v>0.005213052994737074</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>47.980825</v>
-      </c>
-      <c r="N13">
-        <v>143.942475</v>
-      </c>
-      <c r="O13">
-        <v>0.155424969272891</v>
-      </c>
-      <c r="P13">
-        <v>0.1607186127944892</v>
-      </c>
-      <c r="Q13">
-        <v>4.787830597058335</v>
-      </c>
-      <c r="R13">
-        <v>43.09047537352501</v>
-      </c>
-      <c r="S13">
-        <v>0.0007952505411740157</v>
-      </c>
-      <c r="T13">
-        <v>0.0008378346457383</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.09978633333333335</v>
-      </c>
-      <c r="H14">
-        <v>0.299359</v>
-      </c>
-      <c r="I14">
-        <v>0.005116620224500326</v>
-      </c>
-      <c r="J14">
-        <v>0.005213052994737074</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>62.26741999999999</v>
-      </c>
-      <c r="N14">
-        <v>186.80226</v>
-      </c>
-      <c r="O14">
-        <v>0.2017037397794264</v>
-      </c>
-      <c r="P14">
-        <v>0.2085735992386923</v>
-      </c>
-      <c r="Q14">
-        <v>6.213437527926668</v>
-      </c>
-      <c r="R14">
-        <v>55.92093775134001</v>
-      </c>
-      <c r="S14">
-        <v>0.001032041434312764</v>
-      </c>
-      <c r="T14">
-        <v>0.001087305226134355</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.09978633333333335</v>
-      </c>
-      <c r="H15">
-        <v>0.299359</v>
-      </c>
-      <c r="I15">
-        <v>0.005116620224500326</v>
-      </c>
-      <c r="J15">
-        <v>0.005213052994737074</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>30.503993</v>
-      </c>
-      <c r="N15">
-        <v>61.007986</v>
-      </c>
-      <c r="O15">
-        <v>0.09881201864964768</v>
-      </c>
-      <c r="P15">
-        <v>0.06811831517629259</v>
-      </c>
-      <c r="Q15">
-        <v>3.043881613495667</v>
-      </c>
-      <c r="R15">
-        <v>18.263289680974</v>
-      </c>
-      <c r="S15">
-        <v>0.0005055835730464908</v>
-      </c>
-      <c r="T15">
-        <v>0.000355104386926216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.09978633333333335</v>
-      </c>
-      <c r="H16">
-        <v>0.299359</v>
-      </c>
-      <c r="I16">
-        <v>0.005116620224500326</v>
-      </c>
-      <c r="J16">
-        <v>0.005213052994737074</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>58.81030666666667</v>
-      </c>
-      <c r="N16">
-        <v>176.43092</v>
-      </c>
-      <c r="O16">
-        <v>0.1905050633580386</v>
-      </c>
-      <c r="P16">
-        <v>0.1969935053322898</v>
-      </c>
-      <c r="Q16">
-        <v>5.868464864475557</v>
-      </c>
-      <c r="R16">
-        <v>52.81618378028001</v>
-      </c>
-      <c r="S16">
-        <v>0.0009747420600474563</v>
-      </c>
-      <c r="T16">
-        <v>0.001026937582916247</v>
+        <v>0.2986400628698936</v>
       </c>
     </row>
   </sheetData>
